--- a/data/insomnia_node_relation.xlsx
+++ b/data/insomnia_node_relation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87236\Projects\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0428697-FD69-42C7-939B-B60A58708C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F612EC-9A8F-4F3A-87AD-BA2433250DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14256" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="260">
   <si>
     <t>ZH_NAME</t>
   </si>
@@ -827,6 +827,27 @@
   </si>
   <si>
     <t>中西医结合科</t>
+  </si>
+  <si>
+    <t>存在既往史</t>
+  </si>
+  <si>
+    <t>存在家族史</t>
+  </si>
+  <si>
+    <t>神经质</t>
+  </si>
+  <si>
+    <t>内化性</t>
+  </si>
+  <si>
+    <t>焦虑特征</t>
+  </si>
+  <si>
+    <t>完美主义</t>
+  </si>
+  <si>
+    <t>患有慢性内科疾病</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1198,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1389,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA1145-5362-4F19-8E4A-5F16CCF0B586}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1883,9 +1904,7 @@
       <c r="A35" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s">
         <v>7</v>
       </c>
@@ -2003,6 +2022,41 @@
       </c>
       <c r="E43">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/insomnia_node_relation.xlsx
+++ b/data/insomnia_node_relation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87236\Projects\SR_ZJUPH_KnowledgeGraph\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZJU_Research\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F612EC-9A8F-4F3A-87AD-BA2433250DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A53573-1C8D-4678-AB88-23F01DF1610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14256" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11832" yWindow="3720" windowWidth="11784" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="261">
   <si>
     <t>ZH_NAME</t>
   </si>
@@ -848,29 +848,33 @@
   </si>
   <si>
     <t>患有慢性内科疾病</t>
+  </si>
+  <si>
+    <t>REASON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -878,7 +882,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1201,7 +1205,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
@@ -1209,7 +1213,7 @@
     <col min="5" max="5" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1343,24 +1347,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1412,16 +1416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA1145-5362-4F19-8E4A-5F16CCF0B586}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>211</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>212</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>213</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>214</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>215</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>216</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>219</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>220</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>221</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>223</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>224</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>252</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>225</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>226</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>227</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>229</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>222</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>230</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>245</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>232</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>233</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>234</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>235</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>236</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>237</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>238</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6">
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>239</v>
       </c>
@@ -1900,11 +1904,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6">
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6">
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>241</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>242</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>243</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>246</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>247</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>249</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>250</v>
       </c>
@@ -2024,43 +2030,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="C44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="C45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="C46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="C47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="C48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="C49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2072,13 +2122,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2163,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2180,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2214,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2231,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -2248,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2265,7 +2315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2282,7 +2332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2316,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2333,7 +2383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2350,7 +2400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -2367,7 +2417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2384,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2401,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2418,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2435,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2452,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -2469,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,7 +2536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -2503,7 +2553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -2520,7 +2570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -2554,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2571,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2605,7 +2655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2639,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2656,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2673,7 +2723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -2690,7 +2740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2721,12 +2771,12 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2760,7 +2810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2774,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2788,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2802,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2816,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2830,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2844,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2858,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2872,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2886,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2900,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2914,7 +2964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -2928,7 +2978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2942,7 +2992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2956,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -2970,7 +3020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -2984,7 +3034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -2998,7 +3048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3012,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3026,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -3040,7 +3090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3054,7 +3104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -3068,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -3082,7 +3132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -3096,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -3110,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -3124,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -3138,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -3152,7 +3202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -3166,7 +3216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -3180,7 +3230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3194,7 +3244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3208,7 +3258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -3222,7 +3272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -3236,7 +3286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -3250,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -3264,7 +3314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3278,7 +3328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3292,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -3306,7 +3356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3334,12 +3384,12 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3356,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3373,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -3387,7 +3437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -3401,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -3415,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -3429,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3457,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -3471,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -3485,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3499,7 +3549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -3527,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3541,7 +3591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3555,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -3569,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -3583,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -3597,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -3611,7 +3661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3625,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -3639,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3653,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -3681,7 +3731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -3695,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3709,7 +3759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3723,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -3737,7 +3787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -3751,7 +3801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -3765,7 +3815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3779,7 +3829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -3793,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3807,7 +3857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -3821,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -3835,7 +3885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -3849,7 +3899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -3863,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -3877,7 +3927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3891,7 +3941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -3905,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -3919,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -3933,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -3961,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -3975,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3989,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4017,13 +4067,13 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4057,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -4071,7 +4121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4085,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -4099,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -4113,7 +4163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4127,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4141,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4155,7 +4205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4169,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4183,7 +4233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -4197,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4211,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4225,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4239,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4253,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -4281,7 +4331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -4309,7 +4359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -4323,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -4337,7 +4387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -4351,7 +4401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -4365,7 +4415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -4379,7 +4429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -4393,7 +4443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -4407,7 +4457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -4421,7 +4471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4435,7 +4485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4449,7 +4499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4463,7 +4513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -4477,7 +4527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -4491,7 +4541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -4505,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -4519,7 +4569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4533,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4547,7 +4597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4561,7 +4611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4575,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4589,7 +4639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -4603,7 +4653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4617,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -4631,7 +4681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -4645,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -4659,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -4687,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -4701,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -4715,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4729,7 +4779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -4743,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -4757,7 +4807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -4771,7 +4821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -4785,7 +4835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -4799,7 +4849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4813,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -4827,7 +4877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -4841,7 +4891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>151</v>
       </c>
@@ -4855,7 +4905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -4869,7 +4919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -4883,7 +4933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -4911,13 +4961,13 @@
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4948,7 +4998,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -4959,7 +5009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -4970,7 +5020,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -4981,7 +5031,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4992,7 +5042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -5003,7 +5053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -5014,7 +5064,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -5025,7 +5075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -5036,7 +5086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -5047,7 +5097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -5058,7 +5108,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -5069,7 +5119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -5080,7 +5130,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -5091,7 +5141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -5102,7 +5152,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -5113,7 +5163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -5124,7 +5174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -5135,7 +5185,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -5146,7 +5196,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -5157,7 +5207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -5168,7 +5218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -5179,7 +5229,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -5190,7 +5240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -5201,7 +5251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -5212,7 +5262,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -5223,7 +5273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -5234,7 +5284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>181</v>
       </c>
@@ -5245,7 +5295,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -5256,7 +5306,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -5267,7 +5317,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -5278,7 +5328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -5289,7 +5339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -5300,7 +5350,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -5311,7 +5361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -5322,7 +5372,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -5333,7 +5383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -5344,7 +5394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -5355,7 +5405,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -5366,7 +5416,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -5377,7 +5427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -5388,7 +5438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -5399,7 +5449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -5410,7 +5460,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -5421,7 +5471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -5432,7 +5482,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -5443,7 +5493,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -5454,7 +5504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -5465,7 +5515,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -5476,7 +5526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -5487,7 +5537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>184</v>
       </c>
@@ -5498,7 +5548,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -5509,7 +5559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -5520,7 +5570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -5531,7 +5581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -5542,7 +5592,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5553,7 +5603,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -5564,7 +5614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -5575,7 +5625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5586,7 +5636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -5597,7 +5647,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -5608,7 +5658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -5619,7 +5669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>184</v>
       </c>
@@ -5630,7 +5680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -5641,7 +5691,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -5652,7 +5702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -5663,7 +5713,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -5674,7 +5724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -5685,7 +5735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5696,7 +5746,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -5707,7 +5757,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>184</v>
       </c>
@@ -5718,7 +5768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -5729,7 +5779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -5740,7 +5790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -5751,7 +5801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -5762,7 +5812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -5773,7 +5823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -5784,7 +5834,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -5795,7 +5845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -5806,7 +5856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -5817,7 +5867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5878,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -5839,7 +5889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>207</v>
       </c>

--- a/data/insomnia_node_relation.xlsx
+++ b/data/insomnia_node_relation.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZJU_Research\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A53573-1C8D-4678-AB88-23F01DF1610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D2EB0-CE36-446A-B29F-806232498C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11832" yWindow="3720" windowWidth="11784" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="11784" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="TYPE" sheetId="2" r:id="rId2"/>
     <sheet name="INSOMNIA" sheetId="8" r:id="rId3"/>
-    <sheet name="GAD_7" sheetId="7" r:id="rId4"/>
-    <sheet name="ESS" sheetId="3" r:id="rId5"/>
-    <sheet name="PHQ_9" sheetId="5" r:id="rId6"/>
-    <sheet name="PHQ_15" sheetId="6" r:id="rId7"/>
-    <sheet name="PSQI" sheetId="4" r:id="rId8"/>
+    <sheet name="DRAG" sheetId="9" r:id="rId4"/>
+    <sheet name="CBT_I" sheetId="10" r:id="rId5"/>
+    <sheet name="GAD_7" sheetId="7" r:id="rId6"/>
+    <sheet name="ESS" sheetId="3" r:id="rId7"/>
+    <sheet name="PHQ_9" sheetId="5" r:id="rId8"/>
+    <sheet name="PHQ_15" sheetId="6" r:id="rId9"/>
+    <sheet name="PSQI" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="492">
   <si>
     <t>ZH_NAME</t>
   </si>
@@ -71,9 +73,6 @@
   </si>
   <si>
     <t>低反应性的轻度失眠</t>
-  </si>
-  <si>
-    <t>Highly Distressed Insomnia</t>
   </si>
   <si>
     <t>Moderately Distressed Insomnia (Reward-sensitive)</t>
@@ -775,9 +774,6 @@
     <t>环境因素</t>
   </si>
   <si>
-    <t>药物或酒精滥用</t>
-  </si>
-  <si>
     <t>慢性肝衰竭</t>
   </si>
   <si>
@@ -852,6 +848,710 @@
   <si>
     <t>REASON</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精滥用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物滥用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highly Distressed Insomnia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚立能</t>
+  </si>
+  <si>
+    <t>九味镇心颗粒</t>
+  </si>
+  <si>
+    <t>澳能软膏/新适确得</t>
+  </si>
+  <si>
+    <t>盐酸苯海索片</t>
+  </si>
+  <si>
+    <t>乐元</t>
+  </si>
+  <si>
+    <t>舒宁安</t>
+  </si>
+  <si>
+    <t>皿治林</t>
+  </si>
+  <si>
+    <t>地奈德乳膏</t>
+  </si>
+  <si>
+    <t>乐坦</t>
+  </si>
+  <si>
+    <t>普特彼软膏</t>
+  </si>
+  <si>
+    <t>备乐</t>
+  </si>
+  <si>
+    <t>多塞平片</t>
+  </si>
+  <si>
+    <t>心达悦</t>
+  </si>
+  <si>
+    <t>金盟</t>
+  </si>
+  <si>
+    <t>舒眠胶囊</t>
+  </si>
+  <si>
+    <t>美能片</t>
+  </si>
+  <si>
+    <t>乐孚亭</t>
+  </si>
+  <si>
+    <t>康多宁</t>
+  </si>
+  <si>
+    <t>玖卫九味镇心颗粒</t>
+  </si>
+  <si>
+    <t>百介民</t>
+  </si>
+  <si>
+    <t>倍他乐克</t>
+  </si>
+  <si>
+    <t>碳酸锂片</t>
+  </si>
+  <si>
+    <t>开思亭片</t>
+  </si>
+  <si>
+    <t>氯氮平片</t>
+  </si>
+  <si>
+    <t>每素玉</t>
+  </si>
+  <si>
+    <t>优必罗</t>
+  </si>
+  <si>
+    <t>唯他停</t>
+  </si>
+  <si>
+    <t>安定</t>
+  </si>
+  <si>
+    <t>佳静安定</t>
+  </si>
+  <si>
+    <t>安律凡</t>
+  </si>
+  <si>
+    <t>阿米替林片</t>
+  </si>
+  <si>
+    <t>康弘舒肝解郁胶囊</t>
+  </si>
+  <si>
+    <t>多弗</t>
+  </si>
+  <si>
+    <t>百乐眠胶囊</t>
+  </si>
+  <si>
+    <t>维思通</t>
+  </si>
+  <si>
+    <t>利必通</t>
+  </si>
+  <si>
+    <t>喜普妙</t>
+  </si>
+  <si>
+    <t>希德</t>
+  </si>
+  <si>
+    <t>万生力乐</t>
+  </si>
+  <si>
+    <t>奥兰之</t>
+  </si>
+  <si>
+    <t>普萘洛尔片</t>
+  </si>
+  <si>
+    <t>一舒</t>
+  </si>
+  <si>
+    <t>舒坦罗</t>
+  </si>
+  <si>
+    <t>百忧解</t>
+  </si>
+  <si>
+    <t>舒思</t>
+  </si>
+  <si>
+    <t>盐酸舍曲林</t>
+  </si>
+  <si>
+    <t>再普乐</t>
+  </si>
+  <si>
+    <t>乌灵胶囊</t>
+  </si>
+  <si>
+    <t>盐酸异丙嗪片</t>
+  </si>
+  <si>
+    <t>舒绪</t>
+  </si>
+  <si>
+    <t>律康</t>
+  </si>
+  <si>
+    <t>森福罗</t>
+  </si>
+  <si>
+    <t>佳乐定</t>
+  </si>
+  <si>
+    <t>米尔宁</t>
+  </si>
+  <si>
+    <t>黛力新</t>
+  </si>
+  <si>
+    <t>阿美宁</t>
+  </si>
+  <si>
+    <t>维诺定</t>
+  </si>
+  <si>
+    <t>艾司唑仑片</t>
+  </si>
+  <si>
+    <t>派迪生</t>
+  </si>
+  <si>
+    <t>德巴金</t>
+  </si>
+  <si>
+    <t>舒乐安定</t>
+  </si>
+  <si>
+    <t>启维</t>
+  </si>
+  <si>
+    <t>碳酸锂缓释片</t>
+  </si>
+  <si>
+    <t>瑞必乐</t>
+  </si>
+  <si>
+    <t>待命名</t>
+  </si>
+  <si>
+    <t>忆孟返</t>
+  </si>
+  <si>
+    <t>欧兰宁</t>
+  </si>
+  <si>
+    <t>左洛复</t>
+  </si>
+  <si>
+    <t>奥思平</t>
+  </si>
+  <si>
+    <t>阿普唑仑片</t>
+  </si>
+  <si>
+    <t>优菲</t>
+  </si>
+  <si>
+    <t>百洛特</t>
+  </si>
+  <si>
+    <t>赛乐特</t>
+  </si>
+  <si>
+    <t>博乐欣</t>
+  </si>
+  <si>
+    <t>佳普乐</t>
+  </si>
+  <si>
+    <t>思诺思</t>
+  </si>
+  <si>
+    <t>氯硝西泮片</t>
+  </si>
+  <si>
+    <t>文飞</t>
+  </si>
+  <si>
+    <t>瑞美隆</t>
+  </si>
+  <si>
+    <t>兰释</t>
+  </si>
+  <si>
+    <t>怡诺思</t>
+  </si>
+  <si>
+    <t>欣百达</t>
+  </si>
+  <si>
+    <t>思瑞康</t>
+  </si>
+  <si>
+    <t>百适可</t>
+  </si>
+  <si>
+    <t>罗拉</t>
+  </si>
+  <si>
+    <t>伊坦宁</t>
+  </si>
+  <si>
+    <t>美时玉</t>
+  </si>
+  <si>
+    <t>来士普</t>
+  </si>
+  <si>
+    <t>三辰</t>
+  </si>
+  <si>
+    <t>乐友</t>
+  </si>
+  <si>
+    <t>DRAG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠卫生_1</t>
+  </si>
+  <si>
+    <t>睡眠卫生_2</t>
+  </si>
+  <si>
+    <t>睡眠卫生_6</t>
+  </si>
+  <si>
+    <t>睡眠卫生_13</t>
+  </si>
+  <si>
+    <t>睡眠卫生_14</t>
+  </si>
+  <si>
+    <t>睡眠卫生_25</t>
+  </si>
+  <si>
+    <t>睡眠卫生_26</t>
+  </si>
+  <si>
+    <t>睡眠卫生_3</t>
+  </si>
+  <si>
+    <t>睡眠卫生_4</t>
+  </si>
+  <si>
+    <t>睡眠卫生_5</t>
+  </si>
+  <si>
+    <t>睡眠卫生_7</t>
+  </si>
+  <si>
+    <t>睡眠卫生_8</t>
+  </si>
+  <si>
+    <t>睡眠卫生_9</t>
+  </si>
+  <si>
+    <t>睡眠卫生_11</t>
+  </si>
+  <si>
+    <t>睡眠卫生_28</t>
+  </si>
+  <si>
+    <t>睡眠限制_29</t>
+  </si>
+  <si>
+    <t>睡眠限制_30</t>
+  </si>
+  <si>
+    <t>睡眠限制_31</t>
+  </si>
+  <si>
+    <t>睡眠限制_33</t>
+  </si>
+  <si>
+    <t>睡眠限制_40</t>
+  </si>
+  <si>
+    <t>睡眠限制_42</t>
+  </si>
+  <si>
+    <t>睡眠限制_50</t>
+  </si>
+  <si>
+    <t>睡眠限制_51</t>
+  </si>
+  <si>
+    <t>睡眠限制_52</t>
+  </si>
+  <si>
+    <t>睡眠限制_54</t>
+  </si>
+  <si>
+    <t>放松训练_55</t>
+  </si>
+  <si>
+    <t>放松训练_56</t>
+  </si>
+  <si>
+    <t>放松训练_57</t>
+  </si>
+  <si>
+    <t>放松训练_59</t>
+  </si>
+  <si>
+    <t>放松训练_68</t>
+  </si>
+  <si>
+    <t>放松训练_77</t>
+  </si>
+  <si>
+    <t>放松训练_82</t>
+  </si>
+  <si>
+    <t>刺激控制_83</t>
+  </si>
+  <si>
+    <t>刺激控制_85</t>
+  </si>
+  <si>
+    <t>刺激控制_86</t>
+  </si>
+  <si>
+    <t>刺激控制_95</t>
+  </si>
+  <si>
+    <t>刺激控制_97</t>
+  </si>
+  <si>
+    <t>刺激控制_110</t>
+  </si>
+  <si>
+    <t>认知重构_111</t>
+  </si>
+  <si>
+    <t>认知重构_112</t>
+  </si>
+  <si>
+    <t>认知重构_113</t>
+  </si>
+  <si>
+    <t>认知重构_114</t>
+  </si>
+  <si>
+    <t>认知重构_115</t>
+  </si>
+  <si>
+    <t>认知重构_116</t>
+  </si>
+  <si>
+    <t>认知重构_117</t>
+  </si>
+  <si>
+    <t>认知重构_118</t>
+  </si>
+  <si>
+    <t>认知重构_119</t>
+  </si>
+  <si>
+    <t>认知重构_120</t>
+  </si>
+  <si>
+    <t>认知重构_121</t>
+  </si>
+  <si>
+    <t>认知重构_126</t>
+  </si>
+  <si>
+    <t>认知重构_129</t>
+  </si>
+  <si>
+    <t>认知重构_130</t>
+  </si>
+  <si>
+    <t>认知重构_131</t>
+  </si>
+  <si>
+    <t>认知重构_132</t>
+  </si>
+  <si>
+    <t>认知重构_133</t>
+  </si>
+  <si>
+    <t>认知重构_134</t>
+  </si>
+  <si>
+    <t>认知重构_135</t>
+  </si>
+  <si>
+    <t>认知重构_136</t>
+  </si>
+  <si>
+    <t>认知重构_137</t>
+  </si>
+  <si>
+    <t>认知重构_138</t>
+  </si>
+  <si>
+    <t>认知重构_139</t>
+  </si>
+  <si>
+    <t>认知重构_140</t>
+  </si>
+  <si>
+    <t>认知重构_141</t>
+  </si>
+  <si>
+    <t>认知重构_142</t>
+  </si>
+  <si>
+    <t>睡眠卫生_18</t>
+  </si>
+  <si>
+    <t>睡眠卫生_19</t>
+  </si>
+  <si>
+    <t>睡眠卫生_20</t>
+  </si>
+  <si>
+    <t>睡眠卫生_21</t>
+  </si>
+  <si>
+    <t>睡眠限制_34</t>
+  </si>
+  <si>
+    <t>睡眠限制_35</t>
+  </si>
+  <si>
+    <t>睡眠限制_37</t>
+  </si>
+  <si>
+    <t>睡眠限制_38</t>
+  </si>
+  <si>
+    <t>睡眠限制_39</t>
+  </si>
+  <si>
+    <t>睡眠限制_41</t>
+  </si>
+  <si>
+    <t>放松训练_61</t>
+  </si>
+  <si>
+    <t>放松训练_64</t>
+  </si>
+  <si>
+    <t>放松训练_69</t>
+  </si>
+  <si>
+    <t>放松训练_71</t>
+  </si>
+  <si>
+    <t>放松训练_74</t>
+  </si>
+  <si>
+    <t>刺激控制_84</t>
+  </si>
+  <si>
+    <t>刺激控制_96</t>
+  </si>
+  <si>
+    <t>放松训练_62</t>
+  </si>
+  <si>
+    <t>放松训练_63</t>
+  </si>
+  <si>
+    <t>睡眠卫生_15</t>
+  </si>
+  <si>
+    <t>睡眠卫生_16</t>
+  </si>
+  <si>
+    <t>睡眠卫生_17</t>
+  </si>
+  <si>
+    <t>睡眠卫生_22</t>
+  </si>
+  <si>
+    <t>睡眠限制_32</t>
+  </si>
+  <si>
+    <t>睡眠限制_36</t>
+  </si>
+  <si>
+    <t>睡眠限制_43</t>
+  </si>
+  <si>
+    <t>睡眠限制_44</t>
+  </si>
+  <si>
+    <t>睡眠限制_45</t>
+  </si>
+  <si>
+    <t>睡眠限制_46</t>
+  </si>
+  <si>
+    <t>睡眠限制_47</t>
+  </si>
+  <si>
+    <t>睡眠限制_48</t>
+  </si>
+  <si>
+    <t>睡眠限制_49</t>
+  </si>
+  <si>
+    <t>放松训练_75</t>
+  </si>
+  <si>
+    <t>放松训练_76</t>
+  </si>
+  <si>
+    <t>放松训练_78</t>
+  </si>
+  <si>
+    <t>放松训练_79</t>
+  </si>
+  <si>
+    <t>放松训练_80</t>
+  </si>
+  <si>
+    <t>放松训练_81</t>
+  </si>
+  <si>
+    <t>刺激控制_88</t>
+  </si>
+  <si>
+    <t>刺激控制_90</t>
+  </si>
+  <si>
+    <t>刺激控制_91</t>
+  </si>
+  <si>
+    <t>刺激控制_100</t>
+  </si>
+  <si>
+    <t>刺激控制_102</t>
+  </si>
+  <si>
+    <t>认知重构_122</t>
+  </si>
+  <si>
+    <t>认知重构_127</t>
+  </si>
+  <si>
+    <t>认知重构_128</t>
+  </si>
+  <si>
+    <t>睡眠卫生_23</t>
+  </si>
+  <si>
+    <t>睡眠卫生_27</t>
+  </si>
+  <si>
+    <t>放松训练_65</t>
+  </si>
+  <si>
+    <t>放松训练_66</t>
+  </si>
+  <si>
+    <t>刺激控制_87</t>
+  </si>
+  <si>
+    <t>刺激控制_89</t>
+  </si>
+  <si>
+    <t>刺激控制_92</t>
+  </si>
+  <si>
+    <t>刺激控制_93</t>
+  </si>
+  <si>
+    <t>刺激控制_94</t>
+  </si>
+  <si>
+    <t>刺激控制_98</t>
+  </si>
+  <si>
+    <t>刺激控制_99</t>
+  </si>
+  <si>
+    <t>刺激控制_101</t>
+  </si>
+  <si>
+    <t>刺激控制_103</t>
+  </si>
+  <si>
+    <t>刺激控制_104</t>
+  </si>
+  <si>
+    <t>刺激控制_105</t>
+  </si>
+  <si>
+    <t>刺激控制_106</t>
+  </si>
+  <si>
+    <t>刺激控制_107</t>
+  </si>
+  <si>
+    <t>刺激控制_108</t>
+  </si>
+  <si>
+    <t>刺激控制_109</t>
+  </si>
+  <si>
+    <t>认知重构_123</t>
+  </si>
+  <si>
+    <t>认知重构_124</t>
+  </si>
+  <si>
+    <t>认知重构_125</t>
+  </si>
+  <si>
+    <t>睡眠卫生_24</t>
+  </si>
+  <si>
+    <t>SBTI_SLEEP_HYGIENE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBTI_SLEEP_HYGIENE</t>
+  </si>
+  <si>
+    <t>SBTI_SLEEP_RESTRICTION</t>
+  </si>
+  <si>
+    <t>SBTI_RELAXATION_TRAINING</t>
+  </si>
+  <si>
+    <t>SBTI_STIMULUS_CONTROL</t>
+  </si>
+  <si>
+    <t>SBTI_CONGNITIVE_RESTRUCTURING</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1902,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1252,13 +1952,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1269,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1286,13 +1986,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1303,13 +2003,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1320,16 +2020,970 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157BE9A-98A3-4E25-A803-2AF15A765668}">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +3005,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,49 +3015,49 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1414,14 +3068,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA1145-5362-4F19-8E4A-5F16CCF0B586}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1444,10 +3099,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1458,10 +3113,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1472,10 +3127,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1486,10 +3141,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1500,10 +3155,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1514,10 +3169,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1528,10 +3183,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1542,10 +3197,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1556,10 +3211,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1570,10 +3225,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1584,10 +3239,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1598,10 +3253,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1612,10 +3267,10 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1626,10 +3281,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1640,10 +3295,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1654,10 +3309,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1668,10 +3323,10 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1682,10 +3337,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1696,10 +3351,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1710,10 +3365,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1724,10 +3379,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1738,10 +3393,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1752,10 +3407,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1766,10 +3421,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1780,10 +3435,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1794,10 +3449,10 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1808,10 +3463,10 @@
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1822,10 +3477,10 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1836,10 +3491,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1850,9 +3505,9 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
@@ -1864,10 +3519,10 @@
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1878,10 +3533,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1892,10 +3547,10 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1906,10 +3561,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1920,10 +3575,10 @@
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1934,10 +3589,10 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1948,10 +3603,10 @@
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1960,12 +3615,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>246</v>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1976,10 +3631,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1990,10 +3645,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -2004,10 +3659,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -2018,10 +3673,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -2032,10 +3687,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>260</v>
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2043,10 +3701,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2054,10 +3715,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2065,10 +3729,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2076,10 +3743,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2087,10 +3757,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>260</v>
+      <c r="D49" t="s">
+        <v>7</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2098,12 +3771,29 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
       </c>
       <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
         <v>3</v>
       </c>
     </row>
@@ -2115,6 +3805,1857 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0B5F40-9FD1-41A3-9BAC-8998875B4A84}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>322</v>
+      </c>
+      <c r="C62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>343</v>
+      </c>
+      <c r="C83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FFB4C4-9D49-444E-88B3-D41528879AB8}">
+  <dimension ref="A1:E134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>398</v>
+      </c>
+      <c r="C47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>406</v>
+      </c>
+      <c r="C55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>408</v>
+      </c>
+      <c r="C57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>419</v>
+      </c>
+      <c r="C68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+      <c r="C69" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>423</v>
+      </c>
+      <c r="C72" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>424</v>
+      </c>
+      <c r="C73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>427</v>
+      </c>
+      <c r="C76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C78" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C79" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>431</v>
+      </c>
+      <c r="C80" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>432</v>
+      </c>
+      <c r="C81" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>433</v>
+      </c>
+      <c r="C82" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>434</v>
+      </c>
+      <c r="C83" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>435</v>
+      </c>
+      <c r="C84" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>436</v>
+      </c>
+      <c r="C85" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>437</v>
+      </c>
+      <c r="C86" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>438</v>
+      </c>
+      <c r="C87" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C89" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>441</v>
+      </c>
+      <c r="C90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>446</v>
+      </c>
+      <c r="C95" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>447</v>
+      </c>
+      <c r="C96" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>448</v>
+      </c>
+      <c r="C97" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>449</v>
+      </c>
+      <c r="C98" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>450</v>
+      </c>
+      <c r="C99" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>451</v>
+      </c>
+      <c r="C100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>454</v>
+      </c>
+      <c r="C103" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>455</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>456</v>
+      </c>
+      <c r="C105" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>457</v>
+      </c>
+      <c r="C106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>458</v>
+      </c>
+      <c r="C107" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>459</v>
+      </c>
+      <c r="C108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>460</v>
+      </c>
+      <c r="C109" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>461</v>
+      </c>
+      <c r="C110" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>462</v>
+      </c>
+      <c r="C111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>463</v>
+      </c>
+      <c r="C112" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C113" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>465</v>
+      </c>
+      <c r="C114" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>467</v>
+      </c>
+      <c r="C116" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>471</v>
+      </c>
+      <c r="C120" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="C121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>473</v>
+      </c>
+      <c r="C122" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>474</v>
+      </c>
+      <c r="C123" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>478</v>
+      </c>
+      <c r="C127" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>480</v>
+      </c>
+      <c r="C129" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>481</v>
+      </c>
+      <c r="C130" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>482</v>
+      </c>
+      <c r="C131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C134" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453996CC-B80C-43A5-96F4-B5C4F054780E}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -2147,16 +5688,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -2164,16 +5705,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2181,16 +5722,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2198,16 +5739,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2215,16 +5756,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2232,16 +5773,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2249,16 +5790,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2266,16 +5807,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2283,16 +5824,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -2300,16 +5841,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -2317,16 +5858,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2334,16 +5875,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -2351,16 +5892,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2368,16 +5909,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -2385,16 +5926,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -2402,16 +5943,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -2419,16 +5960,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2436,16 +5977,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2453,16 +5994,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2470,16 +6011,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2487,16 +6028,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2504,16 +6045,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2521,16 +6062,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2538,16 +6079,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -2555,16 +6096,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2572,16 +6113,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -2589,16 +6130,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -2606,16 +6147,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2623,16 +6164,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2640,16 +6181,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2657,16 +6198,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -2674,16 +6215,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -2691,16 +6232,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -2708,16 +6249,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2725,16 +6266,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -2742,16 +6283,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2763,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BEEE13-8037-4D0F-9521-5DFE55031571}">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -2795,16 +6336,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -2812,13 +6353,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2826,13 +6367,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2840,13 +6381,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2854,13 +6395,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2868,13 +6409,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2882,13 +6423,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2896,13 +6437,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2910,13 +6451,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2924,13 +6465,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -2938,13 +6479,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2952,13 +6493,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -2966,13 +6507,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2980,13 +6521,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -2994,13 +6535,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -3008,13 +6549,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -3022,13 +6563,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -3036,13 +6577,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -3050,13 +6591,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -3064,13 +6605,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3078,13 +6619,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -3092,13 +6633,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -3106,13 +6647,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -3120,13 +6661,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3134,13 +6675,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -3148,13 +6689,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -3162,13 +6703,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -3176,13 +6717,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -3190,13 +6731,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -3204,13 +6745,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -3218,13 +6759,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3232,13 +6773,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3246,13 +6787,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -3260,13 +6801,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -3274,13 +6815,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -3288,13 +6829,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -3302,13 +6843,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -3316,13 +6857,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -3330,13 +6871,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -3344,13 +6885,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -3358,13 +6899,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -3376,7 +6917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1C109-AF65-4AAD-8E9E-96E7F9762D29}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -3408,16 +6949,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3425,13 +6966,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3439,13 +6980,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -3453,13 +6994,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -3467,13 +7008,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3481,13 +7022,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -3495,13 +7036,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -3509,13 +7050,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -3523,13 +7064,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -3537,13 +7078,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -3551,13 +7092,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -3565,13 +7106,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -3579,13 +7120,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3593,13 +7134,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -3607,13 +7148,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -3621,13 +7162,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -3635,13 +7176,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -3649,13 +7190,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -3663,13 +7204,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -3677,13 +7218,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -3691,13 +7232,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -3705,13 +7246,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -3719,13 +7260,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -3733,13 +7274,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3747,13 +7288,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -3761,13 +7302,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -3775,13 +7316,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -3789,13 +7330,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -3803,13 +7344,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -3817,13 +7358,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -3831,13 +7372,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3845,13 +7386,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3859,13 +7400,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -3873,13 +7414,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -3887,13 +7428,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -3901,13 +7442,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -3915,13 +7456,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -3929,13 +7470,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -3943,13 +7484,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -3957,13 +7498,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -3971,13 +7512,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -3985,13 +7526,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -3999,13 +7540,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
         <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -4013,13 +7554,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
         <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -4027,13 +7568,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
         <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -4041,13 +7582,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -4059,7 +7600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EFD36A-3BBB-41D6-9417-450C68E3E4CC}">
   <dimension ref="A1:E62"/>
   <sheetViews>
@@ -4092,16 +7633,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4109,13 +7650,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4123,13 +7664,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4137,13 +7678,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4151,13 +7692,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4165,13 +7706,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4179,13 +7720,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -4193,13 +7734,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -4207,13 +7748,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -4221,13 +7762,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4235,13 +7776,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -4249,13 +7790,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -4263,13 +7804,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -4277,13 +7818,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -4291,13 +7832,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -4305,13 +7846,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
         <v>131</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -4319,13 +7860,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -4333,13 +7874,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -4347,13 +7888,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -4361,13 +7902,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -4375,13 +7916,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -4389,13 +7930,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -4403,13 +7944,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -4417,13 +7958,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -4431,13 +7972,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -4445,13 +7986,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -4459,13 +8000,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -4473,13 +8014,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -4487,13 +8028,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -4501,13 +8042,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -4515,13 +8056,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -4529,13 +8070,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -4543,13 +8084,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -4557,13 +8098,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -4571,13 +8112,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -4585,13 +8126,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -4599,13 +8140,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -4613,13 +8154,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -4627,13 +8168,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -4641,13 +8182,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -4655,13 +8196,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -4669,13 +8210,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -4683,13 +8224,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -4697,13 +8238,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -4711,13 +8252,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -4725,13 +8266,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -4739,13 +8280,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -4753,13 +8294,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -4767,13 +8308,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -4781,13 +8322,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -4795,13 +8336,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -4809,13 +8350,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -4823,13 +8364,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -4837,13 +8378,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -4851,13 +8392,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -4865,13 +8406,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -4879,13 +8420,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -4893,13 +8434,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -4907,13 +8448,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
         <v>147</v>
-      </c>
-      <c r="D60" t="s">
-        <v>148</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -4921,13 +8462,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
         <v>147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -4935,13 +8476,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
         <v>147</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -4951,958 +8492,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157BE9A-98A3-4E25-A803-2AF15A765668}">
-  <dimension ref="A1:E84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" t="s">
-        <v>208</v>
-      </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/insomnia_node_relation.xlsx
+++ b/data/insomnia_node_relation.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZJU_Research\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D2EB0-CE36-446A-B29F-806232498C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E7A2B-931F-43BE-B792-D2E0F2BF7B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11784" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4452" yWindow="7176" windowWidth="11784" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="TYPE" sheetId="2" r:id="rId2"/>
     <sheet name="INSOMNIA" sheetId="8" r:id="rId3"/>
-    <sheet name="DRAG" sheetId="9" r:id="rId4"/>
-    <sheet name="CBT_I" sheetId="10" r:id="rId5"/>
-    <sheet name="GAD_7" sheetId="7" r:id="rId6"/>
-    <sheet name="ESS" sheetId="3" r:id="rId7"/>
-    <sheet name="PHQ_9" sheetId="5" r:id="rId8"/>
-    <sheet name="PHQ_15" sheetId="6" r:id="rId9"/>
-    <sheet name="PSQI" sheetId="4" r:id="rId10"/>
+    <sheet name="SURGERY" sheetId="11" r:id="rId4"/>
+    <sheet name="DRAG" sheetId="9" r:id="rId5"/>
+    <sheet name="CBT_I" sheetId="10" r:id="rId6"/>
+    <sheet name="GAD_7" sheetId="7" r:id="rId7"/>
+    <sheet name="ESS" sheetId="3" r:id="rId8"/>
+    <sheet name="PHQ_9" sheetId="5" r:id="rId9"/>
+    <sheet name="PHQ_15" sheetId="6" r:id="rId10"/>
+    <sheet name="PSQI" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="509">
   <si>
     <t>ZH_NAME</t>
   </si>
@@ -1552,6 +1553,63 @@
   </si>
   <si>
     <t>SBTI_CONGNITIVE_RESTRUCTURING</t>
+  </si>
+  <si>
+    <t>阻塞性睡眠呼吸暂停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠障碍呼吸</t>
+  </si>
+  <si>
+    <t>气道正压</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁桃体切除术</t>
+  </si>
+  <si>
+    <t>咽成形术</t>
+  </si>
+  <si>
+    <t>耳鼻喉科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺样体切除术</t>
+  </si>
+  <si>
+    <t>颏舌肌前移</t>
+  </si>
+  <si>
+    <t>中隔成形术</t>
+  </si>
+  <si>
+    <t>下鼻甲射频消融术</t>
+  </si>
+  <si>
+    <t>肥胖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天嗜睡</t>
+  </si>
+  <si>
+    <t>未经治疗的医疗健康问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧饱和度小于80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性肢体运动综合征</t>
+  </si>
+  <si>
+    <t>呼吸异常</t>
   </si>
 </sst>
 </file>
@@ -2040,6 +2098,900 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EFD36A-3BBB-41D6-9417-450C68E3E4CC}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157BE9A-98A3-4E25-A803-2AF15A765668}">
   <dimension ref="A1:E84"/>
   <sheetViews>
@@ -3068,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEA1145-5362-4F19-8E4A-5F16CCF0B586}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3104,12 +4056,6 @@
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3118,12 +4064,6 @@
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3132,12 +4072,6 @@
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3146,12 +4080,6 @@
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3160,12 +4088,6 @@
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3174,12 +4096,6 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3188,12 +4104,6 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3202,12 +4112,6 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3216,12 +4120,6 @@
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3230,12 +4128,6 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3244,12 +4136,6 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3258,12 +4144,6 @@
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3272,12 +4152,6 @@
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3286,12 +4160,6 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3300,501 +4168,357 @@
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>493</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>498</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>504</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>505</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>506</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>508</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3805,11 +4529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0B5F40-9FD1-41A3-9BAC-8998875B4A84}">
-  <dimension ref="A1:E91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30CE745-63B5-4DE6-A1E3-DD5EE47A7CDD}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3833,6 +4557,95 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0B5F40-9FD1-41A3-9BAC-8998875B4A84}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>262</v>
       </c>
       <c r="C2" t="s">
@@ -4558,11 +5371,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FFB4C4-9D49-444E-88B3-D41528879AB8}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5655,12 +6468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453996CC-B80C-43A5-96F4-B5C4F054780E}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6304,7 +7117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BEEE13-8037-4D0F-9521-5DFE55031571}">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -6917,7 +7730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A1C109-AF65-4AAD-8E9E-96E7F9762D29}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -7598,898 +8411,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EFD36A-3BBB-41D6-9417-450C68E3E4CC}">
-  <dimension ref="A1:E62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>